--- a/biology/Zoologie/Hugh_Elliott/Hugh_Elliott.xlsx
+++ b/biology/Zoologie/Hugh_Elliott/Hugh_Elliott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir Hugh Francis Ivo Elliott, 3e baronnet, est un fonctionnaire et un ornithologue britannique, né le 10 mars 1913 à Allâhâbâd et mort le 21 décembre 1989.
 Il est l’administrateur de l’île Tristan da Cunha de 1950 à 1952. Il est diplômé à l’University College d’Oxford et préside la British Ornithologists' Union de 1975 à 1976. Il hérite du titre de baronnet en 1961.
@@ -512,7 +524,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Richard Fitter (1990). Sir Hugh Elliott (1913–1989), Ibis, 132 (4) : 620-622.</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 19 janvier 2007).</t>
         </is>
